--- a/CENTRA/Parellel Data Entry CENTRA/03/InternalTransfer_ConsigmentOrder.xlsx
+++ b/CENTRA/Parellel Data Entry CENTRA/03/InternalTransfer_ConsigmentOrder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HEADER" sheetId="1" state="visible" r:id="rId2"/>
@@ -153,9 +153,696 @@
     <t xml:space="preserve">00687F6BE343894E82BE92B3CD8059E8EB</t>
   </si>
   <si>
+    <t xml:space="preserve">Can Tho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUONLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2IM12502-10022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM22025-069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM22025-069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dong Nai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3IM12502-10057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM32025-179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM32025-179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nha Trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4IM12502-10022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM42025-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM42025-067</t>
+  </si>
+  <si>
     <t xml:space="preserve">Da Nang</t>
   </si>
   <si>
+    <t xml:space="preserve">5IM12502-10011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM52025-044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM52025-044</t>
+  </si>
+  <si>
     <t xml:space="preserve">5IM12502-10002</t>
   </si>
   <si>
@@ -165,9 +852,6 @@
     <t xml:space="preserve">From Consignment. DocNo: CM52025-045</t>
   </si>
   <si>
-    <t xml:space="preserve">TRUONLK</t>
-  </si>
-  <si>
     <t xml:space="preserve">5IM12502-10003</t>
   </si>
   <si>
@@ -240,165 +924,48 @@
     <t xml:space="preserve">From Consignment. DocNo: CM52025-053</t>
   </si>
   <si>
-    <t xml:space="preserve">5IM12502-10011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM52025-044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM52025-044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can Tho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2IM12502-10022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM22025-069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM22025-069</t>
+    <t xml:space="preserve">Vinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6IM12502-10007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM62025-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM62025-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6IM12502-10008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM62025-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM62025-013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6IM12502-10009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM62025-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM62025-014</t>
   </si>
   <si>
     <t xml:space="preserve">Ha Noi</t>
   </si>
   <si>
+    <t xml:space="preserve">7IM12502-10062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM72025-075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Consignment. DocNo: CM72025-075</t>
+  </si>
+  <si>
     <t xml:space="preserve">7IM12502-10040</t>
   </si>
   <si>
@@ -595,573 +1162,6 @@
   </si>
   <si>
     <t xml:space="preserve">From Consignment. DocNo: CM72025-097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7IM12502-10062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM72025-075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM72025-075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nha Trang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4IM12502-10022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM42025-067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM42025-067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6IM12502-10007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM62025-012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM62025-012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6IM12502-10008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM62025-013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM62025-013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6IM12502-10009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM62025-014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM62025-014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dong Nai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3IM12502-10047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM32025-175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Consignment. DocNo: CM32025-175</t>
   </si>
   <si>
     <t xml:space="preserve">BRANCH</t>
@@ -1837,10 +1837,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U113"/>
+  <dimension ref="A1:U125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D60" activeCellId="0" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2529,22 +2529,22 @@
     </row>
     <row r="14" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>26</v>
@@ -2562,10 +2562,10 @@
         <v>29</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>46</v>
@@ -2576,22 +2576,22 @@
     </row>
     <row r="15" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>26</v>
@@ -2609,10 +2609,10 @@
         <v>29</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>46</v>
@@ -2623,22 +2623,22 @@
     </row>
     <row r="16" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>26</v>
@@ -2656,10 +2656,10 @@
         <v>29</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>46</v>
@@ -2670,22 +2670,22 @@
     </row>
     <row r="17" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>26</v>
@@ -2703,10 +2703,10 @@
         <v>29</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>46</v>
@@ -2717,22 +2717,22 @@
     </row>
     <row r="18" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>26</v>
@@ -2750,10 +2750,10 @@
         <v>29</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>46</v>
@@ -2764,22 +2764,22 @@
     </row>
     <row r="19" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>26</v>
@@ -2797,10 +2797,10 @@
         <v>29</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>46</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="20" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="21" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="22" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="23" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="24" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="25" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="26" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="27" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="28" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>22</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="29" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>22</v>
@@ -3279,24 +3279,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>26</v>
@@ -3314,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>46</v>
@@ -3326,24 +3326,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>26</v>
@@ -3361,10 +3361,10 @@
         <v>29</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>46</v>
@@ -3373,24 +3373,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>26</v>
@@ -3408,10 +3408,10 @@
         <v>29</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>46</v>
@@ -3420,24 +3420,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>26</v>
@@ -3455,10 +3455,10 @@
         <v>29</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>46</v>
@@ -3467,24 +3467,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>26</v>
@@ -3502,10 +3502,10 @@
         <v>29</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>46</v>
@@ -3514,24 +3514,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>26</v>
@@ -3549,10 +3549,10 @@
         <v>29</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>46</v>
@@ -3561,24 +3561,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>26</v>
@@ -3596,10 +3596,10 @@
         <v>29</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>46</v>
@@ -3608,24 +3608,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>26</v>
@@ -3643,10 +3643,10 @@
         <v>29</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>46</v>
@@ -3655,24 +3655,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>26</v>
@@ -3690,10 +3690,10 @@
         <v>29</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>46</v>
@@ -3702,24 +3702,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>26</v>
@@ -3737,10 +3737,10 @@
         <v>29</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>46</v>
@@ -3749,24 +3749,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>26</v>
@@ -3784,10 +3784,10 @@
         <v>29</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>46</v>
@@ -3796,24 +3796,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>26</v>
@@ -3831,10 +3831,10 @@
         <v>29</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>46</v>
@@ -3843,24 +3843,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>26</v>
@@ -3878,10 +3878,10 @@
         <v>29</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>46</v>
@@ -3890,24 +3890,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>26</v>
@@ -3925,10 +3925,10 @@
         <v>29</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>46</v>
@@ -3937,24 +3937,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>26</v>
@@ -3972,10 +3972,10 @@
         <v>29</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>46</v>
@@ -3984,24 +3984,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>26</v>
@@ -4019,10 +4019,10 @@
         <v>29</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>46</v>
@@ -4031,24 +4031,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>26</v>
@@ -4066,10 +4066,10 @@
         <v>29</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>46</v>
@@ -4078,24 +4078,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>26</v>
@@ -4113,10 +4113,10 @@
         <v>29</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>46</v>
@@ -4125,24 +4125,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>26</v>
@@ -4160,10 +4160,10 @@
         <v>29</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>46</v>
@@ -4172,24 +4172,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>26</v>
@@ -4207,10 +4207,10 @@
         <v>29</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>46</v>
@@ -4219,24 +4219,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>26</v>
@@ -4254,10 +4254,10 @@
         <v>29</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>46</v>
@@ -4266,24 +4266,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>26</v>
@@ -4301,10 +4301,10 @@
         <v>29</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>46</v>
@@ -4313,24 +4313,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>26</v>
@@ -4348,10 +4348,10 @@
         <v>29</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>46</v>
@@ -4362,22 +4362,22 @@
     </row>
     <row r="53" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>26</v>
@@ -4395,10 +4395,10 @@
         <v>29</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>46</v>
@@ -4409,22 +4409,22 @@
     </row>
     <row r="54" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>26</v>
@@ -4442,10 +4442,10 @@
         <v>29</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>46</v>
@@ -4456,22 +4456,22 @@
     </row>
     <row r="55" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>26</v>
@@ -4489,10 +4489,10 @@
         <v>29</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>46</v>
@@ -4503,22 +4503,22 @@
     </row>
     <row r="56" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>26</v>
@@ -4536,10 +4536,10 @@
         <v>29</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>46</v>
@@ -4550,22 +4550,22 @@
     </row>
     <row r="57" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>26</v>
@@ -4583,10 +4583,10 @@
         <v>29</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>46</v>
@@ -4597,22 +4597,22 @@
     </row>
     <row r="58" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>26</v>
@@ -4630,10 +4630,10 @@
         <v>29</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>46</v>
@@ -4644,22 +4644,22 @@
     </row>
     <row r="59" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>26</v>
@@ -4677,10 +4677,10 @@
         <v>29</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>46</v>
@@ -4689,24 +4689,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="11.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>26</v>
@@ -4724,10 +4724,10 @@
         <v>29</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>46</v>
@@ -4738,22 +4738,22 @@
     </row>
     <row r="61" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>26</v>
@@ -4771,10 +4771,10 @@
         <v>29</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T61" s="1" t="s">
         <v>46</v>
@@ -4785,22 +4785,22 @@
     </row>
     <row r="62" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>26</v>
@@ -4818,10 +4818,10 @@
         <v>29</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>46</v>
@@ -4832,22 +4832,22 @@
     </row>
     <row r="63" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>26</v>
@@ -4865,10 +4865,10 @@
         <v>29</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>46</v>
@@ -4879,22 +4879,22 @@
     </row>
     <row r="64" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>26</v>
@@ -4912,10 +4912,10 @@
         <v>29</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>46</v>
@@ -4926,22 +4926,22 @@
     </row>
     <row r="65" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>26</v>
@@ -4959,10 +4959,10 @@
         <v>29</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T65" s="1" t="s">
         <v>46</v>
@@ -4973,22 +4973,22 @@
     </row>
     <row r="66" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>26</v>
@@ -5006,10 +5006,10 @@
         <v>29</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>46</v>
@@ -5020,22 +5020,22 @@
     </row>
     <row r="67" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>26</v>
@@ -5053,10 +5053,10 @@
         <v>29</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>46</v>
@@ -5067,22 +5067,22 @@
     </row>
     <row r="68" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>26</v>
@@ -5100,10 +5100,10 @@
         <v>29</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>46</v>
@@ -5114,22 +5114,22 @@
     </row>
     <row r="69" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>26</v>
@@ -5147,10 +5147,10 @@
         <v>29</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T69" s="1" t="s">
         <v>46</v>
@@ -5161,22 +5161,22 @@
     </row>
     <row r="70" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>26</v>
@@ -5194,10 +5194,10 @@
         <v>29</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>46</v>
@@ -5208,22 +5208,22 @@
     </row>
     <row r="71" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>26</v>
@@ -5241,10 +5241,10 @@
         <v>29</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="T71" s="1" t="s">
         <v>46</v>
@@ -5255,22 +5255,22 @@
     </row>
     <row r="72" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>26</v>
@@ -5288,10 +5288,10 @@
         <v>29</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>46</v>
@@ -5302,22 +5302,22 @@
     </row>
     <row r="73" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>26</v>
@@ -5335,10 +5335,10 @@
         <v>29</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>46</v>
@@ -5349,22 +5349,22 @@
     </row>
     <row r="74" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>26</v>
@@ -5382,10 +5382,10 @@
         <v>29</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>46</v>
@@ -5396,22 +5396,22 @@
     </row>
     <row r="75" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>26</v>
@@ -5429,10 +5429,10 @@
         <v>29</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>46</v>
@@ -5443,22 +5443,22 @@
     </row>
     <row r="76" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>26</v>
@@ -5476,10 +5476,10 @@
         <v>29</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>46</v>
@@ -5490,22 +5490,22 @@
     </row>
     <row r="77" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>26</v>
@@ -5523,10 +5523,10 @@
         <v>29</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>46</v>
@@ -5537,22 +5537,22 @@
     </row>
     <row r="78" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>26</v>
@@ -5570,10 +5570,10 @@
         <v>29</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="T78" s="1" t="s">
         <v>46</v>
@@ -5584,22 +5584,22 @@
     </row>
     <row r="79" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>26</v>
@@ -5617,10 +5617,10 @@
         <v>29</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="T79" s="1" t="s">
         <v>46</v>
@@ -5631,22 +5631,22 @@
     </row>
     <row r="80" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>26</v>
@@ -5664,10 +5664,10 @@
         <v>29</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="T80" s="1" t="s">
         <v>46</v>
@@ -5678,22 +5678,22 @@
     </row>
     <row r="81" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>26</v>
@@ -5711,10 +5711,10 @@
         <v>29</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="T81" s="1" t="s">
         <v>46</v>
@@ -5725,22 +5725,22 @@
     </row>
     <row r="82" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>26</v>
@@ -5758,10 +5758,10 @@
         <v>29</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T82" s="1" t="s">
         <v>46</v>
@@ -5772,22 +5772,22 @@
     </row>
     <row r="83" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>26</v>
@@ -5805,10 +5805,10 @@
         <v>29</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="T83" s="1" t="s">
         <v>46</v>
@@ -5819,22 +5819,22 @@
     </row>
     <row r="84" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>26</v>
@@ -5852,10 +5852,10 @@
         <v>29</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>46</v>
@@ -5866,22 +5866,22 @@
     </row>
     <row r="85" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>26</v>
@@ -5899,10 +5899,10 @@
         <v>29</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>46</v>
@@ -5913,22 +5913,22 @@
     </row>
     <row r="86" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>26</v>
@@ -5946,10 +5946,10 @@
         <v>29</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>46</v>
@@ -5960,22 +5960,22 @@
     </row>
     <row r="87" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>26</v>
@@ -5993,10 +5993,10 @@
         <v>29</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>46</v>
@@ -6007,22 +6007,22 @@
     </row>
     <row r="88" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>26</v>
@@ -6040,10 +6040,10 @@
         <v>29</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T88" s="1" t="s">
         <v>46</v>
@@ -6054,22 +6054,22 @@
     </row>
     <row r="89" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>26</v>
@@ -6087,10 +6087,10 @@
         <v>29</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T89" s="1" t="s">
         <v>46</v>
@@ -6101,22 +6101,22 @@
     </row>
     <row r="90" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>26</v>
@@ -6134,10 +6134,10 @@
         <v>29</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T90" s="1" t="s">
         <v>46</v>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="91" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>22</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="92" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>22</v>
@@ -6242,7 +6242,7 @@
     </row>
     <row r="93" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>22</v>
@@ -6289,7 +6289,7 @@
     </row>
     <row r="94" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>22</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="95" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>22</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="96" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>22</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="97" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>22</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="98" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>22</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="99" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>22</v>
@@ -6571,7 +6571,7 @@
     </row>
     <row r="100" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>22</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="101" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>22</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="102" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>22</v>
@@ -6712,7 +6712,7 @@
     </row>
     <row r="103" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>22</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="104" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>22</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="105" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>22</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="106" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>22</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="107" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>22</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="108" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>22</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="109" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>22</v>
@@ -7041,7 +7041,7 @@
     </row>
     <row r="110" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>22</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="111" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>22</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="112" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>22</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="113" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>22</v>
@@ -7227,11 +7227,12 @@
         <v>46</v>
       </c>
     </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:U113">
-    <filterColumn colId="0">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Ha Noi"/>
+        <filter val="CM32025-179"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7253,11 +7254,11 @@
   </sheetPr>
   <dimension ref="A1:S318"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.43"/>
@@ -7274,7 +7275,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="11.85"/>
   </cols>
@@ -7340,13 +7341,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>10</v>
@@ -7395,13 +7396,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>20</v>
@@ -7450,13 +7451,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>30</v>
@@ -7505,13 +7506,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>40</v>
@@ -7560,13 +7561,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>50</v>
@@ -7615,13 +7616,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>60</v>
@@ -7670,13 +7671,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>70</v>
@@ -7725,13 +7726,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>80</v>
@@ -7780,13 +7781,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>200</v>
@@ -7835,13 +7836,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>210</v>
@@ -7890,13 +7891,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>220</v>
@@ -7945,13 +7946,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>230</v>
@@ -8000,13 +8001,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>240</v>
@@ -8055,13 +8056,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>250</v>
@@ -8110,13 +8111,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>260</v>
@@ -8165,13 +8166,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>270</v>
@@ -8220,13 +8221,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>280</v>
@@ -8275,13 +8276,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>290</v>
@@ -8328,15 +8329,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>10</v>
@@ -8385,13 +8386,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>300</v>
@@ -8440,13 +8441,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>310</v>
@@ -8495,13 +8496,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>313</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>10</v>
@@ -8550,13 +8551,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>10</v>
@@ -8605,13 +8606,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>10</v>
@@ -8660,13 +8661,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>10</v>
@@ -8715,13 +8716,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>137</v>
+        <v>326</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>10</v>
@@ -8770,13 +8771,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>139</v>
+        <v>328</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>140</v>
+        <v>329</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>10</v>
@@ -8825,13 +8826,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>142</v>
+        <v>331</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>143</v>
+        <v>332</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>10</v>
@@ -8880,13 +8881,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>334</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>335</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>10</v>
@@ -8935,13 +8936,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>148</v>
+        <v>337</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>10</v>
@@ -8990,13 +8991,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>10</v>
@@ -9045,13 +9046,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>343</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>10</v>
@@ -9100,13 +9101,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>157</v>
+        <v>346</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>10</v>
@@ -9155,13 +9156,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>161</v>
+        <v>350</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>10</v>
@@ -9210,13 +9211,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>10</v>
@@ -9265,13 +9266,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>166</v>
+        <v>355</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>167</v>
+        <v>356</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>10</v>
@@ -9320,13 +9321,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>169</v>
+        <v>358</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>170</v>
+        <v>359</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>10</v>
@@ -9375,13 +9376,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>172</v>
+        <v>361</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>173</v>
+        <v>362</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>10</v>
@@ -9430,13 +9431,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>10</v>
@@ -9485,13 +9486,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>178</v>
+        <v>367</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>179</v>
+        <v>368</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>10</v>
@@ -9540,13 +9541,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>181</v>
+        <v>370</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>182</v>
+        <v>371</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>10</v>
@@ -9595,13 +9596,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>184</v>
+        <v>373</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>10</v>
@@ -9648,15 +9649,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>376</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>188</v>
+        <v>377</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>10</v>
@@ -9705,13 +9706,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>10</v>
@@ -9760,13 +9761,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>262</v>
+        <v>93</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>263</v>
+        <v>94</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>10</v>
@@ -9815,13 +9816,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>265</v>
+        <v>96</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>266</v>
+        <v>97</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>10</v>
@@ -9870,13 +9871,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>268</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>10</v>
@@ -9925,13 +9926,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>10</v>
@@ -9980,13 +9981,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>10</v>
@@ -10035,13 +10036,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>10</v>
@@ -10090,13 +10091,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>281</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>10</v>
@@ -10145,13 +10146,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>284</v>
+        <v>115</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>10</v>
@@ -10200,13 +10201,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>287</v>
+        <v>118</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>10</v>
@@ -10255,13 +10256,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>289</v>
+        <v>120</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>290</v>
+        <v>121</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>10</v>
@@ -10310,13 +10311,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>293</v>
+        <v>124</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>10</v>
@@ -10365,13 +10366,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>295</v>
+        <v>126</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>10</v>
@@ -10420,13 +10421,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>10</v>
@@ -10475,13 +10476,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>301</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>10</v>
@@ -10530,13 +10531,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>10</v>
@@ -10585,13 +10586,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>10</v>
@@ -10640,13 +10641,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>310</v>
+        <v>141</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>311</v>
+        <v>142</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>10</v>
@@ -10695,13 +10696,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>313</v>
+        <v>144</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>314</v>
+        <v>145</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>10</v>
@@ -10750,13 +10751,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>316</v>
+        <v>147</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>10</v>
@@ -10805,13 +10806,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>319</v>
+        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>320</v>
+        <v>151</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>10</v>
@@ -10860,13 +10861,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>322</v>
+        <v>153</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>323</v>
+        <v>154</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>10</v>
@@ -10915,13 +10916,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>325</v>
+        <v>156</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>326</v>
+        <v>157</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>10</v>
@@ -10970,13 +10971,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>10</v>
@@ -11025,13 +11026,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>331</v>
+        <v>162</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>332</v>
+        <v>163</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>10</v>
@@ -11080,13 +11081,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>335</v>
+        <v>166</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>10</v>
@@ -11135,13 +11136,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>10</v>
@@ -11190,13 +11191,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>340</v>
+        <v>171</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>341</v>
+        <v>172</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>10</v>
@@ -11245,13 +11246,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>343</v>
+        <v>174</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>344</v>
+        <v>175</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>10</v>
@@ -11300,13 +11301,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>346</v>
+        <v>177</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>347</v>
+        <v>178</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>10</v>
@@ -11355,13 +11356,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>350</v>
+        <v>181</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>10</v>
@@ -11410,13 +11411,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>352</v>
+        <v>183</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>353</v>
+        <v>184</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>10</v>
@@ -11465,13 +11466,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>355</v>
+        <v>186</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>356</v>
+        <v>187</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>10</v>
@@ -11520,13 +11521,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>358</v>
+        <v>189</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>359</v>
+        <v>190</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>10</v>
@@ -11575,13 +11576,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>361</v>
+        <v>192</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>362</v>
+        <v>193</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>10</v>
@@ -11630,13 +11631,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>364</v>
+        <v>195</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>10</v>
@@ -11685,13 +11686,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>368</v>
+        <v>199</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>10</v>
@@ -11740,13 +11741,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>370</v>
+        <v>201</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>371</v>
+        <v>202</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>10</v>
@@ -11795,13 +11796,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>373</v>
+        <v>204</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>374</v>
+        <v>205</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>10</v>
@@ -11850,13 +11851,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>377</v>
+        <v>208</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>10</v>
@@ -11905,13 +11906,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>10</v>
@@ -11960,13 +11961,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>10</v>
@@ -12015,13 +12016,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>10</v>
@@ -12070,13 +12071,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>10</v>
@@ -12125,13 +12126,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>10</v>
@@ -12180,13 +12181,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>10</v>
@@ -12235,13 +12236,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>10</v>
@@ -12290,13 +12291,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>10</v>
@@ -12345,13 +12346,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>10</v>
@@ -12400,13 +12401,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>10</v>
@@ -12455,13 +12456,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>10</v>
@@ -12510,13 +12511,13 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>10</v>
@@ -12565,13 +12566,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>10</v>
@@ -12620,13 +12621,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>10</v>
@@ -12675,13 +12676,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>10</v>
@@ -12730,13 +12731,13 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>10</v>
@@ -12785,13 +12786,13 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>10</v>
@@ -12840,13 +12841,13 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>10</v>
@@ -12895,13 +12896,13 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>10</v>
@@ -12950,13 +12951,13 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="D104" s="1" t="n">
         <v>10</v>
@@ -13005,13 +13006,13 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="D105" s="1" t="n">
         <v>10</v>
@@ -13060,13 +13061,13 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="D106" s="1" t="n">
         <v>10</v>
@@ -13115,13 +13116,13 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="D107" s="1" t="n">
         <v>10</v>
@@ -13170,13 +13171,13 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="D108" s="1" t="n">
         <v>10</v>
@@ -13225,13 +13226,13 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="D109" s="1" t="n">
         <v>10</v>
@@ -13280,13 +13281,13 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="D110" s="1" t="n">
         <v>10</v>
@@ -13335,13 +13336,13 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="D111" s="1" t="n">
         <v>10</v>
@@ -13390,13 +13391,13 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="D112" s="1" t="n">
         <v>10</v>
@@ -13445,13 +13446,13 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>69</v>
+        <v>297</v>
       </c>
       <c r="D113" s="1" t="n">
         <v>10</v>
@@ -13500,13 +13501,13 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="D114" s="1" t="n">
         <v>10</v>
@@ -13555,13 +13556,13 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>10</v>
@@ -13610,13 +13611,13 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D116" s="1" t="n">
         <v>10</v>
@@ -13665,13 +13666,13 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D117" s="1" t="n">
         <v>10</v>
@@ -13720,13 +13721,13 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D118" s="1" t="n">
         <v>10</v>
@@ -13775,13 +13776,13 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D119" s="1" t="n">
         <v>10</v>
@@ -13830,13 +13831,13 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D120" s="1" t="n">
         <v>10</v>
@@ -13885,13 +13886,13 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D121" s="1" t="n">
         <v>10</v>
@@ -13940,13 +13941,13 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D122" s="1" t="n">
         <v>10</v>
@@ -13995,13 +13996,13 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="D123" s="1" t="n">
         <v>10</v>
@@ -14050,13 +14051,13 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D124" s="1" t="n">
         <v>10</v>
@@ -14105,13 +14106,13 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C125" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D125" s="1" t="n">
         <v>10</v>
@@ -14160,13 +14161,13 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D126" s="1" t="n">
         <v>10</v>
@@ -14215,13 +14216,13 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="D127" s="1" t="n">
         <v>10</v>
@@ -14270,13 +14271,13 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="D128" s="1" t="n">
         <v>10</v>
@@ -14325,13 +14326,13 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D129" s="1" t="n">
         <v>10</v>
@@ -14380,13 +14381,13 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D130" s="1" t="n">
         <v>10</v>
@@ -14435,13 +14436,13 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D131" s="1" t="n">
         <v>320</v>
@@ -14490,13 +14491,13 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D132" s="1" t="n">
         <v>330</v>
@@ -14545,13 +14546,13 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D133" s="1" t="n">
         <v>90</v>
@@ -14600,13 +14601,13 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D134" s="1" t="n">
         <v>100</v>
@@ -14655,13 +14656,13 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D135" s="1" t="n">
         <v>110</v>
@@ -14710,13 +14711,13 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D136" s="1" t="n">
         <v>120</v>
@@ -14765,13 +14766,13 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D137" s="1" t="n">
         <v>130</v>
@@ -14820,13 +14821,13 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D138" s="1" t="n">
         <v>140</v>
@@ -14875,13 +14876,13 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D139" s="1" t="n">
         <v>150</v>
@@ -14930,13 +14931,13 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D140" s="1" t="n">
         <v>160</v>
@@ -14985,13 +14986,13 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D141" s="1" t="n">
         <v>170</v>
@@ -15040,13 +15041,13 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D142" s="1" t="n">
         <v>180</v>
@@ -15095,13 +15096,13 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D143" s="1" t="n">
         <v>190</v>
@@ -15150,13 +15151,13 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>124</v>
+        <v>313</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="D144" s="1" t="n">
         <v>20</v>
@@ -15205,13 +15206,13 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="D145" s="1" t="n">
         <v>20</v>
@@ -15260,13 +15261,13 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="D146" s="1" t="n">
         <v>20</v>
@@ -15315,13 +15316,13 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="D147" s="1" t="n">
         <v>20</v>
@@ -15370,13 +15371,13 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>137</v>
+        <v>326</v>
       </c>
       <c r="D148" s="1" t="n">
         <v>20</v>
@@ -15425,13 +15426,13 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>139</v>
+        <v>328</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>140</v>
+        <v>329</v>
       </c>
       <c r="D149" s="1" t="n">
         <v>20</v>
@@ -15480,13 +15481,13 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>142</v>
+        <v>331</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>143</v>
+        <v>332</v>
       </c>
       <c r="D150" s="1" t="n">
         <v>20</v>
@@ -15535,13 +15536,13 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>145</v>
+        <v>334</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>146</v>
+        <v>335</v>
       </c>
       <c r="D151" s="1" t="n">
         <v>20</v>
@@ -15590,13 +15591,13 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>148</v>
+        <v>337</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="D152" s="1" t="n">
         <v>20</v>
@@ -15645,13 +15646,13 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="D153" s="1" t="n">
         <v>20</v>
@@ -15700,13 +15701,13 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>154</v>
+        <v>343</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="D154" s="1" t="n">
         <v>20</v>
@@ -15755,13 +15756,13 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>157</v>
+        <v>346</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>158</v>
+        <v>347</v>
       </c>
       <c r="D155" s="1" t="n">
         <v>20</v>
@@ -15810,13 +15811,13 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>161</v>
+        <v>350</v>
       </c>
       <c r="D156" s="1" t="n">
         <v>20</v>
@@ -15865,13 +15866,13 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="D157" s="1" t="n">
         <v>20</v>
@@ -15920,13 +15921,13 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>166</v>
+        <v>355</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>167</v>
+        <v>356</v>
       </c>
       <c r="D158" s="1" t="n">
         <v>20</v>
@@ -15975,13 +15976,13 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>169</v>
+        <v>358</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>170</v>
+        <v>359</v>
       </c>
       <c r="D159" s="1" t="n">
         <v>20</v>
@@ -16030,13 +16031,13 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>172</v>
+        <v>361</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>173</v>
+        <v>362</v>
       </c>
       <c r="D160" s="1" t="n">
         <v>20</v>
@@ -16085,13 +16086,13 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="D161" s="1" t="n">
         <v>20</v>
@@ -16140,13 +16141,13 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>178</v>
+        <v>367</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>179</v>
+        <v>368</v>
       </c>
       <c r="D162" s="1" t="n">
         <v>20</v>
@@ -16195,13 +16196,13 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>181</v>
+        <v>370</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>182</v>
+        <v>371</v>
       </c>
       <c r="D163" s="1" t="n">
         <v>20</v>
@@ -16250,13 +16251,13 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>184</v>
+        <v>373</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="D164" s="1" t="n">
         <v>20</v>
@@ -16303,15 +16304,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>187</v>
+        <v>376</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>188</v>
+        <v>377</v>
       </c>
       <c r="D165" s="1" t="n">
         <v>20</v>
@@ -16360,13 +16361,13 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="D166" s="1" t="n">
         <v>20</v>
@@ -16415,13 +16416,13 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>262</v>
+        <v>93</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>263</v>
+        <v>94</v>
       </c>
       <c r="D167" s="1" t="n">
         <v>20</v>
@@ -16470,13 +16471,13 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>265</v>
+        <v>96</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>266</v>
+        <v>97</v>
       </c>
       <c r="D168" s="1" t="n">
         <v>20</v>
@@ -16525,13 +16526,13 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>268</v>
+        <v>99</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="D169" s="1" t="n">
         <v>20</v>
@@ -16580,13 +16581,13 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>272</v>
+        <v>103</v>
       </c>
       <c r="D170" s="1" t="n">
         <v>20</v>
@@ -16635,13 +16636,13 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="D171" s="1" t="n">
         <v>20</v>
@@ -16690,13 +16691,13 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="D172" s="1" t="n">
         <v>20</v>
@@ -16745,13 +16746,13 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>280</v>
+        <v>111</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>281</v>
+        <v>112</v>
       </c>
       <c r="D173" s="1" t="n">
         <v>20</v>
@@ -16800,13 +16801,13 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>284</v>
+        <v>115</v>
       </c>
       <c r="D174" s="1" t="n">
         <v>20</v>
@@ -16855,13 +16856,13 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>287</v>
+        <v>118</v>
       </c>
       <c r="D175" s="1" t="n">
         <v>20</v>
@@ -16910,13 +16911,13 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>289</v>
+        <v>120</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>290</v>
+        <v>121</v>
       </c>
       <c r="D176" s="1" t="n">
         <v>20</v>
@@ -16965,13 +16966,13 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>293</v>
+        <v>124</v>
       </c>
       <c r="D177" s="1" t="n">
         <v>20</v>
@@ -17020,13 +17021,13 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>295</v>
+        <v>126</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="D178" s="1" t="n">
         <v>20</v>
@@ -17075,13 +17076,13 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="D179" s="1" t="n">
         <v>20</v>
@@ -17130,13 +17131,13 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>301</v>
+        <v>132</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="D180" s="1" t="n">
         <v>20</v>
@@ -17185,13 +17186,13 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c r="D181" s="1" t="n">
         <v>20</v>
@@ -17240,13 +17241,13 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="D182" s="1" t="n">
         <v>20</v>
@@ -17295,13 +17296,13 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>310</v>
+        <v>141</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>311</v>
+        <v>142</v>
       </c>
       <c r="D183" s="1" t="n">
         <v>20</v>
@@ -17350,13 +17351,13 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>313</v>
+        <v>144</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>314</v>
+        <v>145</v>
       </c>
       <c r="D184" s="1" t="n">
         <v>20</v>
@@ -17405,13 +17406,13 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>316</v>
+        <v>147</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c r="D185" s="1" t="n">
         <v>20</v>
@@ -17460,13 +17461,13 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>319</v>
+        <v>150</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>320</v>
+        <v>151</v>
       </c>
       <c r="D186" s="1" t="n">
         <v>20</v>
@@ -17515,13 +17516,13 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>322</v>
+        <v>153</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>323</v>
+        <v>154</v>
       </c>
       <c r="D187" s="1" t="n">
         <v>20</v>
@@ -17570,13 +17571,13 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>325</v>
+        <v>156</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>326</v>
+        <v>157</v>
       </c>
       <c r="D188" s="1" t="n">
         <v>20</v>
@@ -17625,13 +17626,13 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
       <c r="D189" s="1" t="n">
         <v>20</v>
@@ -17680,13 +17681,13 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>331</v>
+        <v>162</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>332</v>
+        <v>163</v>
       </c>
       <c r="D190" s="1" t="n">
         <v>20</v>
@@ -17735,13 +17736,13 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>335</v>
+        <v>166</v>
       </c>
       <c r="D191" s="1" t="n">
         <v>20</v>
@@ -17790,13 +17791,13 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="D192" s="1" t="n">
         <v>20</v>
@@ -17845,13 +17846,13 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>340</v>
+        <v>171</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>341</v>
+        <v>172</v>
       </c>
       <c r="D193" s="1" t="n">
         <v>20</v>
@@ -17900,13 +17901,13 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>343</v>
+        <v>174</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>344</v>
+        <v>175</v>
       </c>
       <c r="D194" s="1" t="n">
         <v>20</v>
@@ -17955,13 +17956,13 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>346</v>
+        <v>177</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>347</v>
+        <v>178</v>
       </c>
       <c r="D195" s="1" t="n">
         <v>20</v>
@@ -18010,13 +18011,13 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>350</v>
+        <v>181</v>
       </c>
       <c r="D196" s="1" t="n">
         <v>20</v>
@@ -18065,13 +18066,13 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>352</v>
+        <v>183</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>353</v>
+        <v>184</v>
       </c>
       <c r="D197" s="1" t="n">
         <v>20</v>
@@ -18120,13 +18121,13 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>355</v>
+        <v>186</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>356</v>
+        <v>187</v>
       </c>
       <c r="D198" s="1" t="n">
         <v>20</v>
@@ -18175,13 +18176,13 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>358</v>
+        <v>189</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>359</v>
+        <v>190</v>
       </c>
       <c r="D199" s="1" t="n">
         <v>20</v>
@@ -18230,13 +18231,13 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>361</v>
+        <v>192</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>362</v>
+        <v>193</v>
       </c>
       <c r="D200" s="1" t="n">
         <v>20</v>
@@ -18285,13 +18286,13 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>364</v>
+        <v>195</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
       <c r="D201" s="1" t="n">
         <v>20</v>
@@ -18340,13 +18341,13 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>368</v>
+        <v>199</v>
       </c>
       <c r="D202" s="1" t="n">
         <v>20</v>
@@ -18395,13 +18396,13 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>370</v>
+        <v>201</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>371</v>
+        <v>202</v>
       </c>
       <c r="D203" s="1" t="n">
         <v>20</v>
@@ -18450,13 +18451,13 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>373</v>
+        <v>204</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>374</v>
+        <v>205</v>
       </c>
       <c r="D204" s="1" t="n">
         <v>20</v>
@@ -18505,13 +18506,13 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>376</v>
+        <v>207</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>377</v>
+        <v>208</v>
       </c>
       <c r="D205" s="1" t="n">
         <v>20</v>
@@ -18560,13 +18561,13 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="D206" s="1" t="n">
         <v>20</v>
@@ -18615,13 +18616,13 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="D207" s="1" t="n">
         <v>20</v>
@@ -18670,13 +18671,13 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="D208" s="1" t="n">
         <v>20</v>
@@ -18725,13 +18726,13 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="D209" s="1" t="n">
         <v>20</v>
@@ -18780,13 +18781,13 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="D210" s="1" t="n">
         <v>20</v>
@@ -18835,13 +18836,13 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="D211" s="1" t="n">
         <v>20</v>
@@ -18890,13 +18891,13 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="D212" s="1" t="n">
         <v>20</v>
@@ -18945,13 +18946,13 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="D213" s="1" t="n">
         <v>20</v>
@@ -19000,13 +19001,13 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="D214" s="1" t="n">
         <v>20</v>
@@ -19055,13 +19056,13 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="D215" s="1" t="n">
         <v>20</v>
@@ -19110,13 +19111,13 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="D216" s="1" t="n">
         <v>20</v>
@@ -19165,13 +19166,13 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="D217" s="1" t="n">
         <v>20</v>
@@ -19220,13 +19221,13 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D218" s="1" t="n">
         <v>20</v>
@@ -19275,13 +19276,13 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D219" s="1" t="n">
         <v>20</v>
@@ -19330,13 +19331,13 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="D220" s="1" t="n">
         <v>20</v>
@@ -19385,13 +19386,13 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="D221" s="1" t="n">
         <v>20</v>
@@ -19440,13 +19441,13 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="D222" s="1" t="n">
         <v>20</v>
@@ -19495,13 +19496,13 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="D223" s="1" t="n">
         <v>20</v>
@@ -19550,13 +19551,13 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="D224" s="1" t="n">
         <v>20</v>
@@ -19605,13 +19606,13 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="D225" s="1" t="n">
         <v>20</v>
@@ -19660,13 +19661,13 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="D226" s="1" t="n">
         <v>20</v>
@@ -19715,13 +19716,13 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="D227" s="1" t="n">
         <v>20</v>
@@ -19770,13 +19771,13 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="D228" s="1" t="n">
         <v>20</v>
@@ -19825,13 +19826,13 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="D229" s="1" t="n">
         <v>20</v>
@@ -19880,13 +19881,13 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="D230" s="1" t="n">
         <v>20</v>
@@ -19935,13 +19936,13 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="D231" s="1" t="n">
         <v>20</v>
@@ -19990,13 +19991,13 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="D232" s="1" t="n">
         <v>20</v>
@@ -20045,13 +20046,13 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="D233" s="1" t="n">
         <v>20</v>
@@ -20100,13 +20101,13 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>69</v>
+        <v>297</v>
       </c>
       <c r="D234" s="1" t="n">
         <v>20</v>
@@ -20155,13 +20156,13 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="D235" s="1" t="n">
         <v>20</v>
@@ -20210,13 +20211,13 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D236" s="1" t="n">
         <v>20</v>
@@ -20265,13 +20266,13 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D237" s="1" t="n">
         <v>20</v>
@@ -20320,13 +20321,13 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D238" s="1" t="n">
         <v>20</v>
@@ -20375,13 +20376,13 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D239" s="1" t="n">
         <v>20</v>
@@ -20430,13 +20431,13 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D240" s="1" t="n">
         <v>20</v>
@@ -20485,13 +20486,13 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D241" s="1" t="n">
         <v>20</v>
@@ -20540,13 +20541,13 @@
     </row>
     <row r="242" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D242" s="1" t="n">
         <v>20</v>
@@ -20595,13 +20596,13 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D243" s="1" t="n">
         <v>20</v>
@@ -20650,13 +20651,13 @@
     </row>
     <row r="244" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="D244" s="1" t="n">
         <v>20</v>
@@ -20705,13 +20706,13 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D245" s="1" t="n">
         <v>20</v>
@@ -20760,13 +20761,13 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C246" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D246" s="1" t="n">
         <v>20</v>
@@ -20815,13 +20816,13 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D247" s="1" t="n">
         <v>20</v>
@@ -20870,13 +20871,13 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="D248" s="1" t="n">
         <v>20</v>
@@ -20925,13 +20926,13 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="D249" s="1" t="n">
         <v>20</v>
@@ -20980,13 +20981,13 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="D250" s="1" t="n">
         <v>20</v>
@@ -21035,13 +21036,13 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D251" s="1" t="n">
         <v>20</v>
@@ -21090,13 +21091,13 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D252" s="1" t="n">
         <v>340</v>
@@ -21145,13 +21146,13 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D253" s="1" t="n">
         <v>350</v>
@@ -21200,13 +21201,13 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D254" s="1" t="n">
         <v>360</v>
@@ -21255,13 +21256,13 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D255" s="1" t="n">
         <v>370</v>
@@ -21310,13 +21311,13 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D256" s="1" t="n">
         <v>380</v>
@@ -21365,13 +21366,13 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D257" s="1" t="n">
         <v>390</v>
@@ -21420,13 +21421,13 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D258" s="1" t="n">
         <v>400</v>
@@ -21475,13 +21476,13 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D259" s="1" t="n">
         <v>410</v>
@@ -21530,13 +21531,13 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D260" s="1" t="n">
         <v>420</v>
@@ -21585,13 +21586,13 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D261" s="1" t="n">
         <v>430</v>
@@ -21640,13 +21641,13 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D262" s="1" t="n">
         <v>440</v>
@@ -21695,13 +21696,13 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D263" s="1" t="n">
         <v>450</v>
@@ -21750,13 +21751,13 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D264" s="1" t="n">
         <v>460</v>
@@ -21805,13 +21806,13 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D265" s="1" t="n">
         <v>470</v>
@@ -24741,14 +24742,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S318">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Ha Noi"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="CM72025-097"/>
+        <filter val="CM32025-179"/>
       </filters>
     </filterColumn>
   </autoFilter>
